--- a/tradept/Excel/Localization/english/Y游戏内文字_Strings_UI_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y游戏内文字_Strings_UI_hotfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F9935F0-29F1-4EFB-B691-03D9B8531E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804BF983-6381-47E0-984D-16B0CCA51CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -9088,7 +9088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C264" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C267" sqref="A1:C1431"/>
     </sheetView>
   </sheetViews>
@@ -9108,7 +9108,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="22.5">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9119,7 +9119,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="22.5">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="22.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -9141,7 +9141,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="22.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="22.5">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="22.5">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="22.5">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15">
+    <row r="74" spans="1:3" ht="30">
       <c r="A74" s="3" t="s">
         <v>123</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>2394</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15">
+    <row r="91" spans="1:3" ht="120">
       <c r="A91" s="3" t="s">
         <v>151</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15">
+    <row r="92" spans="1:3" ht="30">
       <c r="A92" s="3" t="s">
         <v>153</v>
       </c>
@@ -10854,7 +10854,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15">
+    <row r="168" spans="1:3" ht="30">
       <c r="A168" s="3" t="s">
         <v>279</v>
       </c>
@@ -10887,7 +10887,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15">
+    <row r="171" spans="1:3" ht="30">
       <c r="A171" s="3" t="s">
         <v>283</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15">
+    <row r="174" spans="1:3" ht="30">
       <c r="A174" s="3" t="s">
         <v>286</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15">
+    <row r="177" spans="1:3" ht="30">
       <c r="A177" s="3" t="s">
         <v>289</v>
       </c>
@@ -10986,7 +10986,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15">
+    <row r="180" spans="1:3" ht="30">
       <c r="A180" s="3" t="s">
         <v>292</v>
       </c>
@@ -11019,7 +11019,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15">
+    <row r="183" spans="1:3" ht="30">
       <c r="A183" s="3" t="s">
         <v>295</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15">
+    <row r="186" spans="1:3" ht="30">
       <c r="A186" s="3" t="s">
         <v>298</v>
       </c>
@@ -11085,7 +11085,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15">
+    <row r="189" spans="1:3" ht="30">
       <c r="A189" s="3" t="s">
         <v>301</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15">
+    <row r="192" spans="1:3" ht="30">
       <c r="A192" s="3" t="s">
         <v>304</v>
       </c>
@@ -11151,7 +11151,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15">
+    <row r="195" spans="1:3" ht="30">
       <c r="A195" s="3" t="s">
         <v>307</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15">
+    <row r="209" spans="1:3" ht="30">
       <c r="A209" s="3" t="s">
         <v>331</v>
       </c>
@@ -11311,7 +11311,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15">
+    <row r="210" spans="1:3" ht="30">
       <c r="A210" s="3" t="s">
         <v>333</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15">
+    <row r="267" spans="1:3" ht="56.25">
       <c r="A267" s="1" t="s">
         <v>432</v>
       </c>
@@ -11939,7 +11939,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15">
+    <row r="268" spans="1:3" ht="56.25">
       <c r="A268" s="1" t="s">
         <v>434</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>2448</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15">
+    <row r="269" spans="1:3" ht="56.25">
       <c r="A269" s="1" t="s">
         <v>436</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15">
+    <row r="270" spans="1:3" ht="56.25">
       <c r="A270" s="1" t="s">
         <v>438</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15">
+    <row r="271" spans="1:3" ht="78.75">
       <c r="A271" s="1" t="s">
         <v>440</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15">
+    <row r="272" spans="1:3" ht="78.75">
       <c r="A272" s="1" t="s">
         <v>442</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15">
+    <row r="273" spans="1:3" ht="67.5">
       <c r="A273" s="1" t="s">
         <v>444</v>
       </c>
@@ -12005,7 +12005,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15">
+    <row r="274" spans="1:3" ht="78.75">
       <c r="A274" s="1" t="s">
         <v>446</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15">
+    <row r="275" spans="1:3" ht="67.5">
       <c r="A275" s="1" t="s">
         <v>448</v>
       </c>
@@ -12027,7 +12027,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15">
+    <row r="276" spans="1:3" ht="67.5">
       <c r="A276" s="1" t="s">
         <v>450</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15">
+    <row r="277" spans="1:3" ht="45">
       <c r="A277" s="1" t="s">
         <v>452</v>
       </c>
@@ -12049,7 +12049,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15">
+    <row r="278" spans="1:3" ht="33.75">
       <c r="A278" s="1" t="s">
         <v>454</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15">
+    <row r="329" spans="1:3" ht="30">
       <c r="A329" s="3" t="s">
         <v>535</v>
       </c>
@@ -13025,7 +13025,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="15">
+    <row r="369" spans="1:3" ht="30">
       <c r="A369" s="3" t="s">
         <v>600</v>
       </c>
@@ -13058,7 +13058,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="15">
+    <row r="372" spans="1:3" ht="30">
       <c r="A372" s="3" t="s">
         <v>603</v>
       </c>
@@ -13091,7 +13091,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="15">
+    <row r="375" spans="1:3" ht="30">
       <c r="A375" s="3" t="s">
         <v>606</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="15">
+    <row r="378" spans="1:3" ht="30">
       <c r="A378" s="3" t="s">
         <v>609</v>
       </c>
@@ -13157,7 +13157,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="15">
+    <row r="381" spans="1:3" ht="30">
       <c r="A381" s="3" t="s">
         <v>612</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="15">
+    <row r="384" spans="1:3" ht="30">
       <c r="A384" s="3" t="s">
         <v>615</v>
       </c>
@@ -13223,7 +13223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="15">
+    <row r="387" spans="1:3" ht="30">
       <c r="A387" s="3" t="s">
         <v>618</v>
       </c>
@@ -13256,7 +13256,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="15">
+    <row r="390" spans="1:3" ht="30">
       <c r="A390" s="3" t="s">
         <v>621</v>
       </c>
@@ -13289,7 +13289,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="15">
+    <row r="393" spans="1:3" ht="30">
       <c r="A393" s="3" t="s">
         <v>624</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="15">
+    <row r="396" spans="1:3" ht="30">
       <c r="A396" s="3" t="s">
         <v>627</v>
       </c>
@@ -13421,7 +13421,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="15">
+    <row r="405" spans="1:3" ht="30">
       <c r="A405" s="3" t="s">
         <v>640</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="15">
+    <row r="439" spans="1:3" ht="30">
       <c r="A439" s="3" t="s">
         <v>705</v>
       </c>
@@ -13988,7 +13988,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="15">
+    <row r="457" spans="1:3" ht="30">
       <c r="A457" s="3" t="s">
         <v>737</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="615" spans="1:3" ht="15">
+    <row r="615" spans="1:3" ht="30">
       <c r="A615" s="3" t="s">
         <v>997</v>
       </c>
@@ -17573,7 +17573,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="787" spans="1:3" ht="15">
+    <row r="787" spans="1:3" ht="30">
       <c r="A787" s="3" t="s">
         <v>1232</v>
       </c>
@@ -17859,7 +17859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="813" spans="1:3" ht="15">
+    <row r="813" spans="1:3" ht="30">
       <c r="A813" s="3" t="s">
         <v>1263</v>
       </c>
@@ -18585,7 +18585,7 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="879" spans="1:3" ht="15">
+    <row r="879" spans="1:3" ht="195">
       <c r="A879" s="3" t="s">
         <v>1350</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="880" spans="1:3" ht="15">
+    <row r="880" spans="1:3" ht="195">
       <c r="A880" s="3" t="s">
         <v>1352</v>
       </c>
@@ -18607,7 +18607,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="881" spans="1:3" ht="15">
+    <row r="881" spans="1:3" ht="255">
       <c r="A881" s="3" t="s">
         <v>1354</v>
       </c>
@@ -18618,7 +18618,7 @@
         <v>2648</v>
       </c>
     </row>
-    <row r="882" spans="1:3" ht="15">
+    <row r="882" spans="1:3" ht="225">
       <c r="A882" s="3" t="s">
         <v>1356</v>
       </c>
@@ -19014,7 +19014,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="918" spans="1:3" ht="15">
+    <row r="918" spans="1:3" ht="45">
       <c r="A918" s="3" t="s">
         <v>1417</v>
       </c>
@@ -20578,7 +20578,7 @@
         <v>2718</v>
       </c>
     </row>
-    <row r="1092" spans="1:3" ht="15">
+    <row r="1092" spans="1:3" ht="30">
       <c r="A1092" s="3" t="s">
         <v>1671</v>
       </c>
@@ -20589,7 +20589,7 @@
         <v>2719</v>
       </c>
     </row>
-    <row r="1093" spans="1:3" ht="15">
+    <row r="1093" spans="1:3" ht="30">
       <c r="A1093" s="3" t="s">
         <v>1673</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="1104" spans="1:3" ht="15">
+    <row r="1104" spans="1:3" ht="30">
       <c r="A1104" s="3" t="s">
         <v>1688</v>
       </c>
@@ -20753,7 +20753,7 @@
         <v>2722</v>
       </c>
     </row>
-    <row r="1109" spans="1:3" ht="15">
+    <row r="1109" spans="1:3" ht="30">
       <c r="A1109" s="3" t="s">
         <v>1695</v>
       </c>
@@ -23659,7 +23659,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="1431" spans="1:3" ht="15">
+    <row r="1431" spans="1:3" ht="112.5">
       <c r="A1431" s="1" t="s">
         <v>2146</v>
       </c>
